--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H200_B16.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5531914893617021</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5172413793103449</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5562310030395137</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7123287671232876</v>
+        <v>0.6970954356846474</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4772036474164134</v>
+        <v>0.486322188449848</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1223937885898004</v>
+        <v>0.1130045010690741</v>
       </c>
       <c r="J2" t="n">
-        <v>1595.852266990159</v>
+        <v>1548.603599286559</v>
       </c>
       <c r="K2" t="n">
-        <v>3251211.775812717</v>
+        <v>3573307.677054831</v>
       </c>
       <c r="L2" t="n">
-        <v>1803.111692550608</v>
+        <v>1890.319464285027</v>
       </c>
       <c r="M2" t="n">
-        <v>0.388701001318844</v>
+        <v>0.3281399196404935</v>
       </c>
     </row>
   </sheetData>
